--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3124999.745743264</v>
+        <v>3126760.276046049</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.3828147651819</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651819</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="D2" t="n">
-        <v>263.3828147651819</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>72.31773688549194</v>
+        <v>12.83532033605545</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179688</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.2762171674031</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>90.4881139512805</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500677</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807535</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642691</v>
+        <v>18.19058462642715</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>8.771416659197738</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718863</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>82.14744450079944</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>228.4281779920816</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.11342416039188</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>219.4450108596165</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>2.875953774682953</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>107.1258713709636</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>218.229737505958</v>
+        <v>20.06166367650272</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>193.9481721195875</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>70.49595672079303</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>239.3135884893127</v>
+        <v>18.56489249210083</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>149.2479410620339</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179411</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3135037226517</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>127.996768116959</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>633.1508394817874</v>
+        <v>573.0675904419479</v>
       </c>
       <c r="C2" t="n">
-        <v>367.10759224423</v>
+        <v>307.0243432043927</v>
       </c>
       <c r="D2" t="n">
-        <v>101.0643450066725</v>
+        <v>40.98109596683749</v>
       </c>
       <c r="E2" t="n">
-        <v>101.0643450066725</v>
+        <v>40.98109596683749</v>
       </c>
       <c r="F2" t="n">
-        <v>94.11884425746904</v>
+        <v>34.03559521763402</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121455</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121455</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121455</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467436</v>
+        <v>49.15993901467323</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935578</v>
+        <v>141.9970572935558</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959995</v>
+        <v>294.0714735959964</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796011</v>
+        <v>494.9530007795966</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670369</v>
+        <v>703.6988094670309</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288997</v>
+        <v>887.4762960288924</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108073</v>
+        <v>1009.825128108065</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060728</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060728</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193449</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="T2" t="n">
-        <v>899.1940867193449</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="U2" t="n">
-        <v>899.1940867193449</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="V2" t="n">
-        <v>899.1940867193449</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="W2" t="n">
-        <v>899.1940867193449</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="X2" t="n">
-        <v>899.1940867193449</v>
+        <v>839.1108376795031</v>
       </c>
       <c r="Y2" t="n">
-        <v>899.1940867193449</v>
+        <v>839.1108376795031</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>886.5091315712165</v>
+        <v>650.2300771021631</v>
       </c>
       <c r="C3" t="n">
-        <v>712.0561022900895</v>
+        <v>475.7770478210361</v>
       </c>
       <c r="D3" t="n">
-        <v>563.1216926288382</v>
+        <v>326.8426381597849</v>
       </c>
       <c r="E3" t="n">
-        <v>403.8842376233827</v>
+        <v>167.6051831543294</v>
       </c>
       <c r="F3" t="n">
-        <v>257.3496796502677</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="G3" t="n">
-        <v>165.947544345944</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129066</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121455</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121455</v>
+        <v>117.0004092799672</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371094</v>
+        <v>191.586434112463</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420744</v>
+        <v>338.1990901420693</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286612</v>
+        <v>528.6460126286552</v>
       </c>
       <c r="N3" t="n">
-        <v>738.542143376711</v>
+        <v>738.542143376704</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748576</v>
+        <v>908.3363012748497</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062226</v>
+        <v>1025.278016062218</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060728</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155246</v>
+        <v>1035.156931155236</v>
       </c>
       <c r="S3" t="n">
-        <v>886.5091315712165</v>
+        <v>1035.156931155236</v>
       </c>
       <c r="T3" t="n">
-        <v>886.5091315712165</v>
+        <v>1035.156931155236</v>
       </c>
       <c r="U3" t="n">
-        <v>886.5091315712165</v>
+        <v>1035.156931155236</v>
       </c>
       <c r="V3" t="n">
-        <v>886.5091315712165</v>
+        <v>1035.156931155236</v>
       </c>
       <c r="W3" t="n">
-        <v>886.5091315712165</v>
+        <v>1026.296914327764</v>
       </c>
       <c r="X3" t="n">
-        <v>886.5091315712165</v>
+        <v>818.4454141222311</v>
       </c>
       <c r="Y3" t="n">
-        <v>886.5091315712165</v>
+        <v>818.4454141222311</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>465.9903056738538</v>
+        <v>340.123447521457</v>
       </c>
       <c r="C4" t="n">
-        <v>465.9903056738538</v>
+        <v>171.1872645935501</v>
       </c>
       <c r="D4" t="n">
-        <v>315.873666261518</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9605726791249</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121455</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121455</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121455</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121455</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121455</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481202</v>
+        <v>125.4984182940688</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504857</v>
+        <v>315.7177729964338</v>
       </c>
       <c r="M4" t="n">
-        <v>527.495897157083</v>
+        <v>526.6665349030308</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210608</v>
+        <v>738.0340231670081</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376806</v>
+        <v>917.2498138836274</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097378</v>
+        <v>1047.079201097369</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060728</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="R4" t="n">
-        <v>924.715389897206</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="S4" t="n">
-        <v>924.715389897206</v>
+        <v>970.5540423932442</v>
       </c>
       <c r="T4" t="n">
-        <v>924.715389897206</v>
+        <v>970.5540423932442</v>
       </c>
       <c r="U4" t="n">
-        <v>924.715389897206</v>
+        <v>970.5540423932442</v>
       </c>
       <c r="V4" t="n">
-        <v>924.715389897206</v>
+        <v>970.5540423932442</v>
       </c>
       <c r="W4" t="n">
-        <v>693.9798565718711</v>
+        <v>970.5540423932442</v>
       </c>
       <c r="X4" t="n">
-        <v>465.9903056738538</v>
+        <v>742.5644914952269</v>
       </c>
       <c r="Y4" t="n">
-        <v>465.9903056738538</v>
+        <v>521.7719123516968</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>827.1755808508577</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="C5" t="n">
-        <v>560.7979242836798</v>
+        <v>300.438579740743</v>
       </c>
       <c r="D5" t="n">
-        <v>560.7979242836798</v>
+        <v>300.438579740743</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165019</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.4214638411526</v>
+        <v>833.193892875099</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.4845493424988</v>
+        <v>198.4551434940586</v>
       </c>
       <c r="C6" t="n">
-        <v>170.0315200613718</v>
+        <v>24.00211421293156</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
         <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>478.4519222278687</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4685,13 +4685,13 @@
         <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>928.3116853330534</v>
+        <v>782.2822794846134</v>
       </c>
       <c r="X6" t="n">
-        <v>720.4601851275206</v>
+        <v>574.4307792790805</v>
       </c>
       <c r="Y6" t="n">
-        <v>512.6998863625668</v>
+        <v>366.6704805141266</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.8363344083309</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="C7" t="n">
-        <v>315.900151480424</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>926.0629918407075</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W7" t="n">
-        <v>705.628913551861</v>
+        <v>779.9067250561958</v>
       </c>
       <c r="X7" t="n">
-        <v>705.628913551861</v>
+        <v>551.9171741581785</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.8363344083309</v>
+        <v>331.1245950146483</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.4584982637875</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C8" t="n">
-        <v>494.4959813233758</v>
+        <v>690.4032258886157</v>
       </c>
       <c r="D8" t="n">
-        <v>136.2302827166252</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="E8" t="n">
         <v>136.2302827166252</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.432083834915</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.663428564801</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.197670303721</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1250.058338327909</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>119.9870984135519</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>304.7087196946019</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>599.4122767260735</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4992,7 +4992,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
         <v>1394.715222610545</v>
@@ -5026,37 +5026,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5129,19 +5129,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2229.161883810406</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2009.560418833348</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746419</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,22 +5752,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6004,16 +6004,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,7 +6238,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6442,64 +6442,64 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6931,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6952,16 +6952,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7174,22 +7174,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7204,7 +7204,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877273</v>
+        <v>60.59164343877319</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079294</v>
+        <v>99.0079072400017</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96.89877181692552</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>105.9060266940962</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>134.1688236634906</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8303,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>45.78351343583176</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544039</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.454437538929909</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>31.77834493961069</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>83.27114962944304</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.4693302300325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>20.61870490125337</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>735396.6620022721</v>
+        <v>735396.662002272</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>717842.2100639894</v>
+        <v>717842.2100639895</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312481</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287557</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287559</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909309</v>
+        <v>679702.4124909284</v>
       </c>
       <c r="C3" t="n">
-        <v>366.470368092778</v>
+        <v>366.4703680951956</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059433</v>
@@ -26383,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642119</v>
+        <v>68912.53318642064</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774233591</v>
+        <v>85.20559774296801</v>
       </c>
       <c r="L3" t="n">
         <v>95382.64613756971</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674027</v>
+        <v>253116.5477674034</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26429,7 +26429,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26438,7 +26438,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26450,7 +26450,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.461645577</v>
+        <v>63021.46164557681</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-277428.8732726625</v>
+        <v>-277428.8732726609</v>
       </c>
       <c r="C6" t="n">
-        <v>401980.5101515537</v>
+        <v>401980.5101515515</v>
       </c>
       <c r="D6" t="n">
         <v>91598.4551177606</v>
       </c>
       <c r="E6" t="n">
-        <v>84911.00384412757</v>
+        <v>85223.64517304869</v>
       </c>
       <c r="F6" t="n">
-        <v>592396.4454686736</v>
+        <v>592709.0867975946</v>
       </c>
       <c r="G6" t="n">
-        <v>592396.4454686735</v>
+        <v>592709.0867975948</v>
       </c>
       <c r="H6" t="n">
-        <v>592396.4454686734</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="I6" t="n">
-        <v>592396.4454686735</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="J6" t="n">
-        <v>523483.9122822523</v>
+        <v>523796.5536111736</v>
       </c>
       <c r="K6" t="n">
-        <v>592311.2398709308</v>
+        <v>592623.8811998517</v>
       </c>
       <c r="L6" t="n">
-        <v>497013.7993311037</v>
+        <v>497326.4406600249</v>
       </c>
       <c r="M6" t="n">
-        <v>459789.1517397469</v>
+        <v>460101.7930686679</v>
       </c>
       <c r="N6" t="n">
-        <v>592396.4454686736</v>
+        <v>592709.0867975948</v>
       </c>
       <c r="O6" t="n">
-        <v>592396.4454686734</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="P6" t="n">
-        <v>592396.4454686738</v>
+        <v>592709.0867975948</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960523</v>
+        <v>613.7700232960505</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651819</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26810,19 +26810,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960523</v>
+        <v>613.7700232960505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734260917</v>
+        <v>0.2849904734279107</v>
       </c>
       <c r="D3" t="n">
         <v>320.0098783480607</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651819</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363242639</v>
+        <v>0.3310652363266198</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985325</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996096</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651816</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363244913</v>
+        <v>0.3310652363268472</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651819</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363242639</v>
+        <v>0.3310652363266198</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985325</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.3510268982987</v>
+        <v>119.351026898301</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058257</v>
+        <v>101.8900770058279</v>
       </c>
       <c r="D2" t="n">
-        <v>91.30022685550108</v>
+        <v>91.30022685550335</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>340.5175834505635</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739393</v>
+        <v>115.3507887739396</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179689</v>
       </c>
       <c r="T2" t="n">
         <v>212.2947308627104</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.4548835110659</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>45.53521863351975</v>
+        <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.4852405450068</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94290942807549</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>242.9235665017219</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8841809557937</v>
@@ -27557,10 +27557,10 @@
         <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>122.1660284180233</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825642</v>
+        <v>15.10853304825665</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718865</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>122.5806759188199</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>58.09482034450943</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>369.6204175030887</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>101.5590117695014</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>143.1621657402052</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27669,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>166.7929277964371</v>
       </c>
     </row>
     <row r="6">
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>144.5691117899558</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>144.569111789956</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27833,13 +27833,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>68.29326083063305</v>
+        <v>266.4613346600883</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>187.9821979526743</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,7 +27912,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>257.2563017493419</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>46.91356563188788</v>
+        <v>267.6622616290998</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079605</v>
+        <v>2.467417179079598</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524901</v>
+        <v>25.26943618524894</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646657</v>
+        <v>95.1251007964663</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029078</v>
+        <v>209.4189488029072</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933476</v>
+        <v>313.8647179933466</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876051</v>
+        <v>389.376936487604</v>
       </c>
       <c r="M2" t="n">
-        <v>433.256866746062</v>
+        <v>433.2568667460608</v>
       </c>
       <c r="N2" t="n">
-        <v>440.267415806122</v>
+        <v>440.2674158061207</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316491</v>
+        <v>415.732036231648</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231214</v>
+        <v>354.8176746231203</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973329</v>
+        <v>266.4532968973321</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753594</v>
+        <v>154.9938943753589</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827656</v>
+        <v>56.22626896827639</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142098</v>
+        <v>10.80111870142095</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263684</v>
+        <v>0.1973933743263678</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410377</v>
+        <v>1.320184578410373</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148969</v>
+        <v>12.75020369148965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333972</v>
+        <v>45.45372342333959</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435874</v>
+        <v>124.728491243587</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970826</v>
+        <v>213.180857997082</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289724</v>
+        <v>286.6479717289715</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963484</v>
+        <v>334.5046626963475</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682321</v>
+        <v>343.3580057682311</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466127</v>
+        <v>314.1054948466118</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439955</v>
+        <v>252.0973516439948</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774368</v>
+        <v>168.5204033774364</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621622</v>
+        <v>81.96724952621598</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564886</v>
+        <v>24.52184951564879</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311998</v>
+        <v>5.321270296311983</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963008</v>
+        <v>0.08685424857962983</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665012</v>
+        <v>1.106798402665009</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058025</v>
+        <v>9.840443980057996</v>
       </c>
       <c r="I4" t="n">
-        <v>33.2844465092351</v>
+        <v>33.284446509235</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841636</v>
+        <v>78.25064706841613</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823532</v>
+        <v>128.5898507823528</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653056</v>
+        <v>164.5507370653051</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195709</v>
+        <v>173.4956805195704</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187288</v>
+        <v>169.3703410187283</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148692</v>
+        <v>156.4409233148688</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005029</v>
+        <v>133.8622359005025</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770389</v>
+        <v>92.67927351770362</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528317</v>
+        <v>49.76568090528303</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735298</v>
+        <v>19.28847761735292</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477778</v>
+        <v>4.729047720477764</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354619</v>
+        <v>0.06037082196354601</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31849,10 +31849,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>414.6448185524877</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,7 +32086,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622155</v>
+        <v>28.37304427622092</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836705</v>
+        <v>93.77486694836608</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176179</v>
+        <v>153.6105215176167</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187893</v>
+        <v>202.910633518788</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095311</v>
+        <v>210.8543522095298</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099624</v>
+        <v>185.6338248099612</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678518</v>
+        <v>123.5846788678508</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288342</v>
+        <v>44.14760702288262</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>96.89877181692204</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272363</v>
+        <v>75.33941902272301</v>
       </c>
       <c r="L3" t="n">
-        <v>244.9923637660237</v>
+        <v>148.0935919490973</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743301</v>
+        <v>192.3706287743291</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848988</v>
+        <v>212.0162936848978</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021683</v>
+        <v>171.5092504021674</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296653</v>
+        <v>118.1229442296645</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141533</v>
+        <v>28.53862929141485</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564704</v>
+        <v>105.4826193059136</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256217</v>
+        <v>192.1407623256212</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814115</v>
+        <v>213.079557481411</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979574</v>
+        <v>213.5025133979568</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289089</v>
+        <v>181.0260512289084</v>
       </c>
       <c r="P4" t="n">
-        <v>130.3030555148459</v>
+        <v>131.140795165396</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009506</v>
+        <v>6.517230266009236</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>238.3094620181791</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>69.4346584298473</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35497,10 +35497,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>272.5107846304694</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,7 +35734,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
